--- a/data/helpful_resources.xlsx
+++ b/data/helpful_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwiederstein/Dropbox/state_rep/lrc_bill_requests/fiscal_note/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682CBBF3-F5B6-994D-87A6-5EB458862E16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318CB32-12D8-1243-A6DB-7BAC6217542F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{612227C2-7BF0-3B42-A7D8-E88EF6B91B51}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Center for Budget &amp; Policy Priorities</t>
   </si>
@@ -54,18 +54,12 @@
     <t>CBPP Better Cost Estimates</t>
   </si>
   <si>
-    <t>resources/2015-11-24_cbpp_better_cost_estimates.pdf</t>
-  </si>
-  <si>
     <t>Best practices in fiscal notes.</t>
   </si>
   <si>
     <t>Improving CBO Cost Estimates</t>
   </si>
   <si>
-    <t>resources/2018-01-01_fifteen_ways_improve_cbo_cost_estimates.pdf</t>
-  </si>
-  <si>
     <t>Improve CBO Cost Estimates.</t>
   </si>
   <si>
@@ -112,6 +106,21 @@
   </si>
   <si>
     <t>Textbook on public budgeting.</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2TzX2pS</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2TL5umo</t>
+  </si>
+  <si>
+    <t>Fiscal Note Process in State Legislatures</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2F2qk8r</t>
+  </si>
+  <si>
+    <t>Survey.</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF86B3C9-C8D1-5141-9BB8-333DBB68EB03}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,13 +497,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -523,72 +532,85 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{DDC48E35-B09A-B44C-BFBF-E67A382518BD}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{BBB2030C-6E69-7145-960E-D3AE0B926549}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{780F2B74-A610-4C4F-ABB2-06B71ACEC738}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{2D5DF05A-195F-F54A-88BC-2C9350FBBD01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/helpful_resources.xlsx
+++ b/data/helpful_resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwiederstein/Dropbox/state_rep/lrc_bill_requests/fiscal_note/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318CB32-12D8-1243-A6DB-7BAC6217542F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151C8AF8-B273-A542-87E3-D42F33252E61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{612227C2-7BF0-3B42-A7D8-E88EF6B91B51}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>NCSL Understanding Fiscal Notes</t>
   </si>
   <si>
-    <t>resources/2014-07-01_ncsl_fiscal_notes_final.pdf</t>
-  </si>
-  <si>
     <t>Powerpoint presentation.</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Survey.</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2TtBqwd</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,13 +497,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -544,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,33 +576,33 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -611,6 +611,8 @@
     <hyperlink ref="B9" r:id="rId2" xr:uid="{BBB2030C-6E69-7145-960E-D3AE0B926549}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{780F2B74-A610-4C4F-ABB2-06B71ACEC738}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{2D5DF05A-195F-F54A-88BC-2C9350FBBD01}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{15A7FD13-343E-7B46-B5D1-4CE83846DF16}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{D31F2BCD-68CD-C64C-BE2C-3869BD3446F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
